--- a/data/trans_dic/P19F$mañana-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19F$mañana-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4828011069274656</v>
+        <v>0.4783136078899203</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5495895122781388</v>
+        <v>0.5613518393116743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5423579544697117</v>
+        <v>0.5350889124354532</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6334306660694019</v>
+        <v>0.6306517480946012</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.703339427616147</v>
+        <v>0.7121636918371349</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6464067083827085</v>
+        <v>0.6488786691120214</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3878398932500724</v>
+        <v>0.3855696944888778</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3876207574935702</v>
+        <v>0.3844798133860527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4025956581139475</v>
+        <v>0.4049001965788305</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5202362595164833</v>
+        <v>0.510668863720278</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.523599802084169</v>
+        <v>0.515979275761825</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4949632250941445</v>
+        <v>0.4961845183878379</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5397134362365416</v>
+        <v>0.5458181682807617</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5897602521294081</v>
+        <v>0.5997119315759111</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5925909708141623</v>
+        <v>0.5930572969886757</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7058351681002777</v>
+        <v>0.6979010882724522</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7760848474345673</v>
+        <v>0.7746804763930319</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7152793736172667</v>
+        <v>0.7098718713319337</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3915106448438314</v>
+        <v>0.3892985968735626</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5041408388884409</v>
+        <v>0.5051278393252501</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4721018637197211</v>
+        <v>0.4723132038993623</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5379160569270088</v>
+        <v>0.5355699168211662</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6458774154123533</v>
+        <v>0.6422139208703042</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5668759173434411</v>
+        <v>0.5683740281962759</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04025641164881157</v>
+        <v>0.03517863611876477</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1011664936940327</v>
+        <v>0.09770348995754993</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08254642423473707</v>
+        <v>0.07982441234360596</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1280447625045265</v>
+        <v>0.1200239681787385</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2191327027367494</v>
+        <v>0.2073128356531679</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1593006113096859</v>
+        <v>0.1531724598086947</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2172116172877208</v>
+        <v>0.2230356394835089</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1908093498219792</v>
+        <v>0.1838496018810352</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2211195598686528</v>
+        <v>0.2193533045022832</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3741200261625707</v>
+        <v>0.3692525434894555</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3208177982314686</v>
+        <v>0.3118539593737741</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3124782654258731</v>
+        <v>0.3129557282829149</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.277751447871641</v>
+        <v>0.2676486392782813</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3304144526346524</v>
+        <v>0.3279512962564613</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3158325442049025</v>
+        <v>0.3166213054864783</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3745162358377571</v>
+        <v>0.3743180670816373</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4344114338562802</v>
+        <v>0.4322561401441493</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3890151618422076</v>
+        <v>0.3922032371332522</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4192411518489244</v>
+        <v>0.4111392031968644</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4584881743997686</v>
+        <v>0.4578524045091356</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4546572831263163</v>
+        <v>0.4573356315924428</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.52977671928209</v>
+        <v>0.5195406251289553</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5727968807346361</v>
+        <v>0.5709287141674794</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.533042288127852</v>
+        <v>0.53597762797413</v>
       </c>
     </row>
     <row r="28">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3855349886891102</v>
+        <v>0.3853216319728627</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4249159802387004</v>
+        <v>0.4257020485064478</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4129149843315915</v>
+        <v>0.4124085013228516</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4347903891678025</v>
+        <v>0.4324384805207487</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.474251832940727</v>
+        <v>0.4752311125760187</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4457652931124786</v>
+        <v>0.4456171745550681</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>86543</v>
+        <v>85738</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>88966</v>
+        <v>90871</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>185014</v>
+        <v>182534</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>113543</v>
+        <v>113045</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>113855</v>
+        <v>115284</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>220508</v>
+        <v>221351</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>98243</v>
+        <v>97668</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>91825</v>
+        <v>91081</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>197354</v>
+        <v>198483</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>131781</v>
+        <v>129357</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>124038</v>
+        <v>122232</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>242632</v>
+        <v>243231</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>74309</v>
+        <v>75150</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>57580</v>
+        <v>58552</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>139446</v>
+        <v>139556</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>97182</v>
+        <v>96089</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>75771</v>
+        <v>75634</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>168317</v>
+        <v>167044</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>81805</v>
+        <v>81343</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>114058</v>
+        <v>114282</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>205454</v>
+        <v>205546</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>112396</v>
+        <v>111906</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>146125</v>
+        <v>145296</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>246699</v>
+        <v>247351</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5857</v>
+        <v>5118</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>14960</v>
+        <v>14448</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>24216</v>
+        <v>23417</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18629</v>
+        <v>17462</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>32405</v>
+        <v>30657</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>46733</v>
+        <v>44935</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>31955</v>
+        <v>32812</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>33955</v>
+        <v>32716</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>71878</v>
+        <v>71304</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>55038</v>
+        <v>54322</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>57090</v>
+        <v>55495</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>101576</v>
+        <v>101731</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>105864</v>
+        <v>102013</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>119032</v>
+        <v>118145</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>234158</v>
+        <v>234743</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>142746</v>
+        <v>142670</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>156498</v>
+        <v>155721</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>288415</v>
+        <v>290779</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>136611</v>
+        <v>133971</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>153048</v>
+        <v>152836</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>299920</v>
+        <v>301687</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>172629</v>
+        <v>169293</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>191205</v>
+        <v>190582</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>351628</v>
+        <v>353564</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>685786</v>
+        <v>685406</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>740432</v>
+        <v>741802</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1454010</v>
+        <v>1452226</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>773401</v>
+        <v>769217</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>826402</v>
+        <v>828108</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1569686</v>
+        <v>1569165</v>
       </c>
     </row>
     <row r="40">
